--- a/recetas.xlsx
+++ b/recetas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3788AE0-81DE-4C31-BB07-E0E8CA3DD2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D244F-5E94-4F5B-A317-D070D42798A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46DBFAB5-3A8E-4887-A0B8-2E0780C9724D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -560,6 +560,21 @@
   </si>
   <si>
     <t>M(9,10)</t>
+  </si>
+  <si>
+    <t>(A+4M+B)/6</t>
+  </si>
+  <si>
+    <t>DESV</t>
+  </si>
+  <si>
+    <t>(B-A)/6</t>
+  </si>
+  <si>
+    <t>VARIANNZA</t>
+  </si>
+  <si>
+    <t>CUADRADO DESV</t>
   </si>
 </sst>
 </file>
@@ -1176,6 +1191,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1194,11 +1215,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,12 +1237,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1258,16 +1273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876822</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>757434</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>88465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,8 +1308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="2552700"/>
-          <a:ext cx="6143625" cy="2076450"/>
+          <a:off x="876822" y="2661781"/>
+          <a:ext cx="6310639" cy="2123944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1305,16 +1320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>939452</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>113387</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1340,8 +1355,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="5124450"/>
-          <a:ext cx="6219825" cy="1028700"/>
+          <a:off x="939452" y="4780767"/>
+          <a:ext cx="6386839" cy="1044227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>664770</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565EACAD-A7BE-50FD-376A-96D4E7BF58E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7995781" y="6388274"/>
+          <a:ext cx="6447619" cy="2857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAA7229-D219-4887-8AFD-6211021BFB1F}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G5:G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,28 +2020,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="K2" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="P2" s="96" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="K2" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="P2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
@@ -2306,7 +2365,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="99">
         <v>5</v>
       </c>
       <c r="L8" s="23">
@@ -2319,7 +2378,7 @@
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="99">
         <v>4</v>
       </c>
       <c r="Q8" s="25">
@@ -2361,7 +2420,7 @@
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K9" s="98"/>
+      <c r="K9" s="100"/>
       <c r="L9" s="23">
         <v>4</v>
       </c>
@@ -2372,7 +2431,7 @@
         <f>9+1</f>
         <v>10</v>
       </c>
-      <c r="P9" s="99"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="17">
         <v>6</v>
       </c>
@@ -2426,7 +2485,7 @@
         <f>9+2</f>
         <v>11</v>
       </c>
-      <c r="P10" s="98"/>
+      <c r="P10" s="100"/>
       <c r="Q10" s="23">
         <v>5</v>
       </c>
@@ -2521,7 +2580,7 @@
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="K12" s="97">
+      <c r="K12" s="99">
         <v>8</v>
       </c>
       <c r="L12" s="34">
@@ -2534,7 +2593,7 @@
         <f>3+3</f>
         <v>6</v>
       </c>
-      <c r="P12" s="97">
+      <c r="P12" s="99">
         <v>2</v>
       </c>
       <c r="Q12" s="17">
@@ -2577,7 +2636,7 @@
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K13" s="99"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="9">
         <v>4</v>
       </c>
@@ -2588,7 +2647,7 @@
         <f>9+5</f>
         <v>14</v>
       </c>
-      <c r="P13" s="99"/>
+      <c r="P13" s="101"/>
       <c r="Q13" s="17">
         <v>4</v>
       </c>
@@ -2601,7 +2660,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="99"/>
+      <c r="K14" s="101"/>
       <c r="L14" s="35">
         <v>6</v>
       </c>
@@ -2612,7 +2671,7 @@
         <f>11+0</f>
         <v>11</v>
       </c>
-      <c r="P14" s="98"/>
+      <c r="P14" s="100"/>
       <c r="Q14" s="17">
         <v>3</v>
       </c>
@@ -2625,7 +2684,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="98"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="18">
         <v>7</v>
       </c>
@@ -2661,10 +2720,10 @@
       </c>
     </row>
     <row r="17" spans="16:18" x14ac:dyDescent="0.3">
-      <c r="P17" s="94" t="s">
+      <c r="P17" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="94"/>
+      <c r="Q17" s="96"/>
     </row>
     <row r="18" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P18" s="93" t="s">
@@ -2768,6 +2827,28 @@
       <c r="Q28" s="28">
         <f>S4-(N11+G13)</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2800,28 +2881,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="K1" s="108" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="K1" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="P1" s="109" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="P1" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
@@ -3098,7 +3179,7 @@
         <f>4+2.17</f>
         <v>6.17</v>
       </c>
-      <c r="P6" s="103">
+      <c r="P6" s="105">
         <v>9</v>
       </c>
       <c r="Q6" s="14">
@@ -3144,7 +3225,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J7" s="24"/>
-      <c r="K7" s="102">
+      <c r="K7" s="104">
         <v>5</v>
       </c>
       <c r="L7" s="54">
@@ -3157,7 +3238,7 @@
         <f>2.17+2</f>
         <v>4.17</v>
       </c>
-      <c r="P7" s="104"/>
+      <c r="P7" s="106"/>
       <c r="Q7" s="14">
         <v>10</v>
       </c>
@@ -3198,7 +3279,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="102"/>
+      <c r="K8" s="104"/>
       <c r="L8" s="32">
         <v>3</v>
       </c>
@@ -3209,7 +3290,7 @@
         <f>5+0</f>
         <v>5</v>
       </c>
-      <c r="P8" s="103">
+      <c r="P8" s="105">
         <v>8</v>
       </c>
       <c r="Q8" s="14">
@@ -3253,7 +3334,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="102"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="32">
         <v>4</v>
       </c>
@@ -3264,7 +3345,7 @@
         <f>6.17+0</f>
         <v>6.17</v>
       </c>
-      <c r="P9" s="104"/>
+      <c r="P9" s="106"/>
       <c r="Q9" s="14">
         <v>9</v>
       </c>
@@ -3305,7 +3386,7 @@
         <v>0.25</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="102">
+      <c r="K10" s="104">
         <v>6</v>
       </c>
       <c r="L10" s="32">
@@ -3361,7 +3442,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="K11" s="102"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="32">
         <v>5</v>
       </c>
@@ -3416,7 +3497,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="J12" s="24"/>
-      <c r="K12" s="102">
+      <c r="K12" s="104">
         <v>7</v>
       </c>
       <c r="L12" s="32">
@@ -3472,7 +3553,7 @@
         <v>0.25</v>
       </c>
       <c r="J13" s="24"/>
-      <c r="K13" s="102"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="32">
         <v>6</v>
       </c>
@@ -3483,7 +3564,7 @@
         <f>11.34+2</f>
         <v>13.34</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="104">
         <v>4</v>
       </c>
       <c r="Q13" s="9">
@@ -3539,7 +3620,7 @@
         <f>13.34+7.83</f>
         <v>21.17</v>
       </c>
-      <c r="P14" s="97"/>
+      <c r="P14" s="99"/>
       <c r="Q14" s="18">
         <v>5</v>
       </c>
@@ -3592,7 +3673,7 @@
         <f>21.17+2.33</f>
         <v>23.5</v>
       </c>
-      <c r="P15" s="105">
+      <c r="P15" s="107">
         <v>3</v>
       </c>
       <c r="Q15" s="9">
@@ -3635,7 +3716,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J16" s="24"/>
-      <c r="K16" s="102">
+      <c r="K16" s="104">
         <v>10</v>
       </c>
       <c r="L16" s="32">
@@ -3648,7 +3729,7 @@
         <f>21.17+2.17</f>
         <v>23.340000000000003</v>
       </c>
-      <c r="P16" s="106"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="18">
         <v>5</v>
       </c>
@@ -3688,7 +3769,7 @@
         <v>0.25</v>
       </c>
       <c r="J17" s="24"/>
-      <c r="K17" s="102"/>
+      <c r="K17" s="104"/>
       <c r="L17" s="32">
         <v>9</v>
       </c>
@@ -3699,7 +3780,7 @@
         <f>23.5+0</f>
         <v>23.5</v>
       </c>
-      <c r="P17" s="102">
+      <c r="P17" s="104">
         <v>2</v>
       </c>
       <c r="Q17" s="9">
@@ -3714,7 +3795,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="102">
+      <c r="K18" s="104">
         <v>11</v>
       </c>
       <c r="L18" s="23">
@@ -3727,7 +3808,7 @@
         <f>23.5+5.33</f>
         <v>28.83</v>
       </c>
-      <c r="P18" s="102"/>
+      <c r="P18" s="104"/>
       <c r="Q18" s="9">
         <v>4</v>
       </c>
@@ -3740,7 +3821,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="102"/>
+      <c r="K19" s="104"/>
       <c r="L19" s="34">
         <v>10</v>
       </c>
@@ -3751,7 +3832,7 @@
         <f>23.5+3</f>
         <v>26.5</v>
       </c>
-      <c r="P19" s="97"/>
+      <c r="P19" s="99"/>
       <c r="Q19" s="18">
         <v>3</v>
       </c>
@@ -3764,7 +3845,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K20" s="98">
+      <c r="K20" s="100">
         <v>12</v>
       </c>
       <c r="L20" s="41">
@@ -3777,7 +3858,7 @@
         <f>0+2</f>
         <v>2</v>
       </c>
-      <c r="P20" s="106">
+      <c r="P20" s="108">
         <v>1</v>
       </c>
       <c r="Q20" s="9">
@@ -3792,7 +3873,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="102"/>
+      <c r="K21" s="104"/>
       <c r="L21" s="42">
         <v>11</v>
       </c>
@@ -3803,7 +3884,7 @@
         <f>28.83+2.17</f>
         <v>31</v>
       </c>
-      <c r="P21" s="107"/>
+      <c r="P21" s="109"/>
       <c r="Q21" s="9">
         <v>2</v>
       </c>
@@ -3839,11 +3920,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="P8:P9"/>
@@ -3854,6 +3930,11 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3899,12 +3980,12 @@
       <c r="L1" s="112"/>
       <c r="M1" s="112"/>
       <c r="N1" s="112"/>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
@@ -4303,7 +4384,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="104">
         <v>6</v>
       </c>
       <c r="L8" s="9">
@@ -4358,7 +4439,7 @@
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K9" s="102"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="9">
         <v>4</v>
       </c>
@@ -4471,7 +4552,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K11" s="102">
+      <c r="K11" s="104">
         <v>8</v>
       </c>
       <c r="L11" s="9">
@@ -4529,7 +4610,7 @@
         <f>H12^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="9">
         <v>5</v>
       </c>
@@ -4580,7 +4661,7 @@
         <f>H13^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="104">
         <v>9</v>
       </c>
       <c r="L13" s="9">
@@ -4632,7 +4713,7 @@
         <f>H14^2</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K14" s="97"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="18">
         <v>8</v>
       </c>
@@ -4685,7 +4766,7 @@
         <f>H15^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="104">
         <v>10</v>
       </c>
       <c r="L15" s="9">
@@ -4712,7 +4793,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K16" s="102"/>
+      <c r="K16" s="104"/>
       <c r="L16" s="9">
         <v>9</v>
       </c>
@@ -4902,14 +4983,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce4950e7-31ff-441e-a103-9a0e095e15da" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BF22E47DC7D0374DBF1FF8606307261B" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="672d39aa868e78537bc521a2d2ab73a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ce4950e7-31ff-441e-a103-9a0e095e15da" xmlns:ns4="41cfda0b-3574-45e9-bbf3-384157781ffd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce7cb3f8b544974cb2a807632cb1ec81" ns3:_="" ns4:_="">
     <xsd:import namespace="ce4950e7-31ff-441e-a103-9a0e095e15da"/>
@@ -5156,6 +5229,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce4950e7-31ff-441e-a103-9a0e095e15da" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5166,16 +5247,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F9ACA13-518A-481D-8432-39236FB77EDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ce4950e7-31ff-441e-a103-9a0e095e15da"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EB86DE-7B46-4F0F-BAE5-B769347A2872}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5194,6 +5265,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F9ACA13-518A-481D-8432-39236FB77EDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce4950e7-31ff-441e-a103-9a0e095e15da"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68BE95E-8D54-46DF-AC84-1D02319574C3}">
   <ds:schemaRefs>

--- a/recetas.xlsx
+++ b/recetas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D244F-5E94-4F5B-A317-D070D42798A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2CA7C7-B1AF-44D2-9BEA-7120AC557C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46DBFAB5-3A8E-4887-A0B8-2E0780C9724D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{46DBFAB5-3A8E-4887-A0B8-2E0780C9724D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="186">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -575,6 +575,27 @@
   </si>
   <si>
     <t>CUADRADO DESV</t>
+  </si>
+  <si>
+    <t>tiempo lejano de j</t>
+  </si>
+  <si>
+    <t>menos</t>
+  </si>
+  <si>
+    <t>(tiempo cercano de I + TE)</t>
+  </si>
+  <si>
+    <t>TIEMPO MAS CORTO</t>
+  </si>
+  <si>
+    <t>TIEMPO ESPERADO</t>
+  </si>
+  <si>
+    <t>SUMA DE LAS DESVIACIONES RUTA CRITICA</t>
+  </si>
+  <si>
+    <t>(X-U)/DESV</t>
   </si>
 </sst>
 </file>
@@ -1215,28 +1236,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1596,8 +1617,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1999,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAA7229-D219-4887-8AFD-6211021BFB1F}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="D2" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,7 +2030,7 @@
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="12.109375" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
     <col min="22" max="22" width="14.44140625" customWidth="1"/>
   </cols>
@@ -2719,13 +2740,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P17" s="96" t="s">
         <v>59</v>
       </c>
       <c r="Q17" s="96"/>
     </row>
-    <row r="18" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P18" s="93" t="s">
         <v>60</v>
       </c>
@@ -2736,7 +2757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="16:19" x14ac:dyDescent="0.3">
       <c r="P19" s="3" t="s">
         <v>63</v>
       </c>
@@ -2747,8 +2768,11 @@
       <c r="R19" s="83" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P20" s="3" t="s">
         <v>65</v>
       </c>
@@ -2756,8 +2780,11 @@
         <f>S11-(N5+G5)</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2765,8 +2792,11 @@
         <f>S8-(N5+G6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P22" s="3" t="s">
         <v>67</v>
       </c>
@@ -2775,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P23" s="3" t="s">
         <v>68</v>
       </c>
@@ -2784,7 +2814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P24" s="3" t="s">
         <v>69</v>
       </c>
@@ -2793,7 +2823,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P25" s="3" t="s">
         <v>70</v>
       </c>
@@ -2802,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P26" s="3" t="s">
         <v>71</v>
       </c>
@@ -2811,7 +2841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P27" s="50" t="s">
         <v>72</v>
       </c>
@@ -2820,7 +2850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="16:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="16:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P28" s="55" t="s">
         <v>73</v>
       </c>
@@ -2871,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B709B2-B5E8-47B0-A1B0-5B44BDC16380}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -2881,28 +2911,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="K1" s="102" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="K1" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="P1" s="103" t="s">
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="P1" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
@@ -3179,7 +3209,7 @@
         <f>4+2.17</f>
         <v>6.17</v>
       </c>
-      <c r="P6" s="105">
+      <c r="P6" s="103">
         <v>9</v>
       </c>
       <c r="Q6" s="14">
@@ -3225,7 +3255,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J7" s="24"/>
-      <c r="K7" s="104">
+      <c r="K7" s="102">
         <v>5</v>
       </c>
       <c r="L7" s="54">
@@ -3238,7 +3268,7 @@
         <f>2.17+2</f>
         <v>4.17</v>
       </c>
-      <c r="P7" s="106"/>
+      <c r="P7" s="104"/>
       <c r="Q7" s="14">
         <v>10</v>
       </c>
@@ -3279,7 +3309,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="104"/>
+      <c r="K8" s="102"/>
       <c r="L8" s="32">
         <v>3</v>
       </c>
@@ -3290,7 +3320,7 @@
         <f>5+0</f>
         <v>5</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="103">
         <v>8</v>
       </c>
       <c r="Q8" s="14">
@@ -3334,7 +3364,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="104"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="32">
         <v>4</v>
       </c>
@@ -3345,7 +3375,7 @@
         <f>6.17+0</f>
         <v>6.17</v>
       </c>
-      <c r="P9" s="106"/>
+      <c r="P9" s="104"/>
       <c r="Q9" s="14">
         <v>9</v>
       </c>
@@ -3386,7 +3416,7 @@
         <v>0.25</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="104">
+      <c r="K10" s="102">
         <v>6</v>
       </c>
       <c r="L10" s="32">
@@ -3442,7 +3472,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J11" s="24"/>
-      <c r="K11" s="104"/>
+      <c r="K11" s="102"/>
       <c r="L11" s="32">
         <v>5</v>
       </c>
@@ -3497,7 +3527,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="J12" s="24"/>
-      <c r="K12" s="104">
+      <c r="K12" s="102">
         <v>7</v>
       </c>
       <c r="L12" s="32">
@@ -3553,7 +3583,7 @@
         <v>0.25</v>
       </c>
       <c r="J13" s="24"/>
-      <c r="K13" s="104"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="32">
         <v>6</v>
       </c>
@@ -3564,7 +3594,7 @@
         <f>11.34+2</f>
         <v>13.34</v>
       </c>
-      <c r="P13" s="104">
+      <c r="P13" s="102">
         <v>4</v>
       </c>
       <c r="Q13" s="9">
@@ -3673,7 +3703,7 @@
         <f>21.17+2.33</f>
         <v>23.5</v>
       </c>
-      <c r="P15" s="107">
+      <c r="P15" s="105">
         <v>3</v>
       </c>
       <c r="Q15" s="9">
@@ -3716,7 +3746,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J16" s="24"/>
-      <c r="K16" s="104">
+      <c r="K16" s="102">
         <v>10</v>
       </c>
       <c r="L16" s="32">
@@ -3729,7 +3759,7 @@
         <f>21.17+2.17</f>
         <v>23.340000000000003</v>
       </c>
-      <c r="P16" s="108"/>
+      <c r="P16" s="106"/>
       <c r="Q16" s="18">
         <v>5</v>
       </c>
@@ -3769,7 +3799,7 @@
         <v>0.25</v>
       </c>
       <c r="J17" s="24"/>
-      <c r="K17" s="104"/>
+      <c r="K17" s="102"/>
       <c r="L17" s="32">
         <v>9</v>
       </c>
@@ -3780,7 +3810,7 @@
         <f>23.5+0</f>
         <v>23.5</v>
       </c>
-      <c r="P17" s="104">
+      <c r="P17" s="102">
         <v>2</v>
       </c>
       <c r="Q17" s="9">
@@ -3795,7 +3825,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="104">
+      <c r="K18" s="102">
         <v>11</v>
       </c>
       <c r="L18" s="23">
@@ -3808,7 +3838,7 @@
         <f>23.5+5.33</f>
         <v>28.83</v>
       </c>
-      <c r="P18" s="104"/>
+      <c r="P18" s="102"/>
       <c r="Q18" s="9">
         <v>4</v>
       </c>
@@ -3821,7 +3851,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="104"/>
+      <c r="K19" s="102"/>
       <c r="L19" s="34">
         <v>10</v>
       </c>
@@ -3858,7 +3888,7 @@
         <f>0+2</f>
         <v>2</v>
       </c>
-      <c r="P20" s="108">
+      <c r="P20" s="106">
         <v>1</v>
       </c>
       <c r="Q20" s="9">
@@ -3873,7 +3903,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="104"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="42">
         <v>11</v>
       </c>
@@ -3884,7 +3914,7 @@
         <f>28.83+2.17</f>
         <v>31</v>
       </c>
-      <c r="P21" s="109"/>
+      <c r="P21" s="107"/>
       <c r="Q21" s="9">
         <v>2</v>
       </c>
@@ -3920,6 +3950,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="P8:P9"/>
@@ -3930,11 +3965,6 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3943,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DD5BCF-457C-4D55-ABA5-6CB259C2583F}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="J12" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="81" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3963,7 +3993,7 @@
     <col min="23" max="23" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="112" t="s">
         <v>123</v>
       </c>
@@ -3987,7 +4017,7 @@
       <c r="R1" s="96"/>
       <c r="S1" s="96"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4074,7 @@
       </c>
       <c r="V2" s="110"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>18</v>
       </c>
@@ -4100,7 +4130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>22</v>
       </c>
@@ -4163,8 +4193,11 @@
         <f>(V6-V5)/V7</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>27</v>
       </c>
@@ -4227,8 +4260,11 @@
       <c r="V5" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
         <v>31</v>
       </c>
@@ -4291,8 +4327,11 @@
       <c r="V6" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
         <v>35</v>
       </c>
@@ -4355,8 +4394,11 @@
         <f>H6+H11+H12+H14+H15</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
@@ -4384,7 +4426,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="102">
         <v>6</v>
       </c>
       <c r="L8" s="9">
@@ -4411,7 +4453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>41</v>
       </c>
@@ -4439,7 +4481,7 @@
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K9" s="104"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="9">
         <v>4</v>
       </c>
@@ -4470,7 +4512,7 @@
         <v>0.95150000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
@@ -4524,7 +4566,7 @@
       </c>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
@@ -4552,7 +4594,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K11" s="104">
+      <c r="K11" s="102">
         <v>8</v>
       </c>
       <c r="L11" s="9">
@@ -4582,7 +4624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
@@ -4610,7 +4652,7 @@
         <f>H12^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K12" s="104"/>
+      <c r="K12" s="102"/>
       <c r="L12" s="9">
         <v>5</v>
       </c>
@@ -4633,7 +4675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>99</v>
       </c>
@@ -4661,7 +4703,7 @@
         <f>H13^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="102">
         <v>9</v>
       </c>
       <c r="L13" s="9">
@@ -4685,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>102</v>
       </c>
@@ -4738,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>105</v>
       </c>
@@ -4766,7 +4808,7 @@
         <f>H15^2</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="102">
         <v>10</v>
       </c>
       <c r="L15" s="9">
@@ -4792,8 +4834,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="K16" s="104"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K16" s="102"/>
       <c r="L16" s="9">
         <v>9</v>
       </c>
@@ -4983,6 +5025,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce4950e7-31ff-441e-a103-9a0e095e15da" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BF22E47DC7D0374DBF1FF8606307261B" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="672d39aa868e78537bc521a2d2ab73a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ce4950e7-31ff-441e-a103-9a0e095e15da" xmlns:ns4="41cfda0b-3574-45e9-bbf3-384157781ffd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce7cb3f8b544974cb2a807632cb1ec81" ns3:_="" ns4:_="">
     <xsd:import namespace="ce4950e7-31ff-441e-a103-9a0e095e15da"/>
@@ -5229,14 +5279,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce4950e7-31ff-441e-a103-9a0e095e15da" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5247,6 +5289,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F9ACA13-518A-481D-8432-39236FB77EDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce4950e7-31ff-441e-a103-9a0e095e15da"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EB86DE-7B46-4F0F-BAE5-B769347A2872}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5265,16 +5317,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F9ACA13-518A-481D-8432-39236FB77EDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ce4950e7-31ff-441e-a103-9a0e095e15da"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A68BE95E-8D54-46DF-AC84-1D02319574C3}">
   <ds:schemaRefs>
